--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H2">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I2">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J2">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N2">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O2">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P2">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q2">
-        <v>58.97773896906045</v>
+        <v>30.75156154341333</v>
       </c>
       <c r="R2">
-        <v>530.799650721544</v>
+        <v>276.76405389072</v>
       </c>
       <c r="S2">
-        <v>0.008541132996447751</v>
+        <v>0.004004575293297312</v>
       </c>
       <c r="T2">
-        <v>0.008541132996447752</v>
+        <v>0.004004575293297312</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H3">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I3">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J3">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>28.185334</v>
       </c>
       <c r="N3">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O3">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P3">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q3">
-        <v>37.35504721733534</v>
+        <v>63.20241715714666</v>
       </c>
       <c r="R3">
-        <v>336.195424956018</v>
+        <v>568.8217544143199</v>
       </c>
       <c r="S3">
-        <v>0.005409743268374897</v>
+        <v>0.008230438570310288</v>
       </c>
       <c r="T3">
-        <v>0.005409743268374898</v>
+        <v>0.008230438570310288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H4">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I4">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J4">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N4">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O4">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P4">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q4">
-        <v>22.572812999286</v>
+        <v>47.26288617565777</v>
       </c>
       <c r="R4">
-        <v>203.155316993574</v>
+        <v>425.3659755809199</v>
       </c>
       <c r="S4">
-        <v>0.003268985914024058</v>
+        <v>0.00615473741070887</v>
       </c>
       <c r="T4">
-        <v>0.003268985914024058</v>
+        <v>0.006154737410708869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H5">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I5">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J5">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N5">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O5">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P5">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q5">
-        <v>82.59178522925744</v>
+        <v>199.9274915246889</v>
       </c>
       <c r="R5">
-        <v>743.3260670633171</v>
+        <v>1799.3474237222</v>
       </c>
       <c r="S5">
-        <v>0.01196090990241592</v>
+        <v>0.02603525326284326</v>
       </c>
       <c r="T5">
-        <v>0.01196090990241593</v>
+        <v>0.02603525326284324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>61.364557</v>
       </c>
       <c r="I6">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J6">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N6">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O6">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P6">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q6">
-        <v>910.2451288963457</v>
+        <v>280.5130175541826</v>
       </c>
       <c r="R6">
-        <v>8192.206160067111</v>
+        <v>2524.617157987644</v>
       </c>
       <c r="S6">
-        <v>0.1318213421058903</v>
+        <v>0.03652938072624029</v>
       </c>
       <c r="T6">
-        <v>0.1318213421058903</v>
+        <v>0.03652938072624029</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>61.364557</v>
       </c>
       <c r="I7">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J7">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>28.185334</v>
       </c>
       <c r="N7">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O7">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P7">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q7">
         <v>576.5268449356793</v>
       </c>
       <c r="R7">
-        <v>5188.741604421114</v>
+        <v>5188.741604421113</v>
       </c>
       <c r="S7">
-        <v>0.08349239127666905</v>
+        <v>0.07507733081758189</v>
       </c>
       <c r="T7">
-        <v>0.08349239127666906</v>
+        <v>0.07507733081758189</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>61.364557</v>
       </c>
       <c r="I8">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J8">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N8">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O8">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P8">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q8">
-        <v>348.3821766864779</v>
+        <v>431.1278567345898</v>
       </c>
       <c r="R8">
-        <v>3135.439590178301</v>
+        <v>3880.150710611308</v>
       </c>
       <c r="S8">
-        <v>0.05045257001513989</v>
+        <v>0.05614296889913081</v>
       </c>
       <c r="T8">
-        <v>0.0504525700151399</v>
+        <v>0.05614296889913081</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>61.364557</v>
       </c>
       <c r="I9">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J9">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N9">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O9">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P9">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q9">
-        <v>1274.697394405427</v>
+        <v>1823.720849442229</v>
       </c>
       <c r="R9">
-        <v>11472.27654964884</v>
+        <v>16413.48764498006</v>
       </c>
       <c r="S9">
-        <v>0.1846011760734612</v>
+        <v>0.2374912716298082</v>
       </c>
       <c r="T9">
-        <v>0.1846011760734612</v>
+        <v>0.2374912716298082</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H10">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I10">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J10">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N10">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O10">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P10">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q10">
-        <v>1051.893598992263</v>
+        <v>380.948328110796</v>
       </c>
       <c r="R10">
-        <v>9467.042390930368</v>
+        <v>3428.534952997164</v>
       </c>
       <c r="S10">
-        <v>0.1523348179186416</v>
+        <v>0.0496084161652001</v>
       </c>
       <c r="T10">
-        <v>0.1523348179186416</v>
+        <v>0.04960841616520009</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H11">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I11">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J11">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>28.185334</v>
       </c>
       <c r="N11">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O11">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P11">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q11">
-        <v>666.2434970350774</v>
+        <v>782.9473997470259</v>
       </c>
       <c r="R11">
-        <v>5996.191473315696</v>
+        <v>7046.526597723233</v>
       </c>
       <c r="S11">
-        <v>0.0964851216012239</v>
+        <v>0.1019581333634707</v>
       </c>
       <c r="T11">
-        <v>0.09648512160122391</v>
+        <v>0.1019581333634707</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H12">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I12">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J12">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N12">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O12">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P12">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q12">
-        <v>402.595927213392</v>
+        <v>585.4895350562808</v>
       </c>
       <c r="R12">
-        <v>3623.363344920528</v>
+        <v>5269.405815506528</v>
       </c>
       <c r="S12">
-        <v>0.05830378407625412</v>
+        <v>0.07624448349591895</v>
       </c>
       <c r="T12">
-        <v>0.05830378407625413</v>
+        <v>0.07624448349591893</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H13">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I13">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J13">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N13">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O13">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P13">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q13">
-        <v>1473.060373806047</v>
+        <v>2476.688656353085</v>
       </c>
       <c r="R13">
-        <v>13257.54336425442</v>
+        <v>22290.19790717777</v>
       </c>
       <c r="S13">
-        <v>0.2133280248514572</v>
+        <v>0.3225230103654894</v>
       </c>
       <c r="T13">
-        <v>0.2133280248514573</v>
+        <v>0.3225230103654893</v>
       </c>
     </row>
   </sheetData>
